--- a/Documents/Journals/Chiong.xlsx
+++ b/Documents/Journals/Chiong.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="print" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name:</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Time End</t>
+  </si>
+  <si>
+    <t>Date/Time:</t>
+  </si>
+  <si>
+    <t>Prepared by:</t>
+  </si>
+  <si>
+    <t>Module:</t>
+  </si>
+  <si>
+    <t>Task:</t>
+  </si>
+  <si>
+    <t>Remarks:</t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -129,11 +144,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -163,6 +394,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,14 +452,12 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -192,7 +472,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -219,23 +501,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -313,6 +578,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -325,17 +607,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:H7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="B6:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="No." dataDxfId="7">
+    <tableColumn id="1" name="No." dataDxfId="6">
       <calculatedColumnFormula>IFERROR(B6+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="6"/>
-    <tableColumn id="7" name="Time Start" dataDxfId="5"/>
-    <tableColumn id="3" name="Time End" dataDxfId="4"/>
-    <tableColumn id="4" name="Module" dataDxfId="3"/>
-    <tableColumn id="5" name="Task" dataDxfId="2"/>
-    <tableColumn id="6" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="2" name="Date" dataDxfId="5"/>
+    <tableColumn id="7" name="Time Start" dataDxfId="4"/>
+    <tableColumn id="3" name="Time End" dataDxfId="3"/>
+    <tableColumn id="4" name="Module" dataDxfId="2"/>
+    <tableColumn id="5" name="Task" dataDxfId="1"/>
+    <tableColumn id="6" name="Remarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,11 +994,29 @@
       <c r="C7" s="10">
         <v>43786</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <f>IFERROR(B7+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43787</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,13 +1029,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showZeros="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>TEXT(INDEX(Data[],A8,2),"mm/dd/yy")&amp;" "&amp;TEXT(INDEX(Data[],A8,3),"hh:mm ")&amp;" - "&amp;TEXT(INDEX(Data[],A8,4),"hh:mm ")</f>
+        <v xml:space="preserve">11/17/19 16:00  - 17:00 </v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f>Data!$B$3</f>
+        <v>Jephunneh Mabini</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f>Data!$B$1</f>
+        <v>Rhea Shane Chiong</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21" t="str">
+        <f>Data!$B$4</f>
+        <v>Mr. Edsel C. Paray</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30">
+        <f>INDEX(Data[],A8,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32">
+        <f>INDEX(Data[],A8,6)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="34">
+        <f>INDEX(Data[],A8,7)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="e">
+        <f>INDEX(Data[],C10,5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>TEXT(INDEX(Data[],A15,2),"mm/dd/yy")&amp;" "&amp;TEXT(INDEX(Data[],A15,3),"hh:mm ")&amp;" - "&amp;TEXT(INDEX(Data[],A15,4),"hh:mm ")</f>
+        <v xml:space="preserve">11/18/19 00:00  - 00:00 </v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="str">
+        <f>Data!$B$3</f>
+        <v>Jephunneh Mabini</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>Data!$B$1</f>
+        <v>Rhea Shane Chiong</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21" t="str">
+        <f>Data!$B$4</f>
+        <v>Mr. Edsel C. Paray</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30">
+        <f>INDEX(Data[],A15,5)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32">
+        <f>INDEX(Data[],A15,6)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="34">
+        <f>INDEX(Data[],A15,7)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="e">
+        <f>INDEX(Data[],C17,5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Journals/Chiong.xlsx
+++ b/Documents/Journals/Chiong.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="print" sheetId="2" r:id="rId2"/>
+    <sheet name="Print" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -33,9 +33,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>Remarks:</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -485,39 +536,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -607,17 +625,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="B6:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" name="No." dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="B6:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" name="No." dataDxfId="7">
       <calculatedColumnFormula>IFERROR(B6+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="5"/>
-    <tableColumn id="7" name="Time Start" dataDxfId="4"/>
-    <tableColumn id="3" name="Time End" dataDxfId="3"/>
-    <tableColumn id="4" name="Module" dataDxfId="2"/>
-    <tableColumn id="5" name="Task" dataDxfId="1"/>
-    <tableColumn id="6" name="Remarks" dataDxfId="0"/>
+    <tableColumn id="2" name="Date Start" dataDxfId="6"/>
+    <tableColumn id="8" name="Date End" dataDxfId="2"/>
+    <tableColumn id="7" name="Time Start" dataDxfId="1"/>
+    <tableColumn id="3" name="Time End" dataDxfId="0"/>
+    <tableColumn id="4" name="Module" dataDxfId="5"/>
+    <tableColumn id="5" name="Task" dataDxfId="4"/>
+    <tableColumn id="6" name="Remarks" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -910,83 +929,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f>IFERROR(B6+1,1)</f>
         <v>1</v>
@@ -994,17 +1016,18 @@
       <c r="C7" s="10">
         <v>43786</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="10"/>
+      <c r="E7" s="28">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <f>IFERROR(B7+1,1)</f>
         <v>2</v>
@@ -1012,11 +1035,14 @@
       <c r="C8" s="10">
         <v>43787</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="10">
+        <v>43789</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,11 +1082,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="17" t="str">
-        <f>TEXT(INDEX(Data[],A8,2),"mm/dd/yy")&amp;" "&amp;TEXT(INDEX(Data[],A8,3),"hh:mm ")&amp;" - "&amp;TEXT(INDEX(Data[],A8,4),"hh:mm ")</f>
-        <v xml:space="preserve">11/17/19 16:00  - 17:00 </v>
+        <f>TEXT(INDEX(Data[],A8,2),"mm/dd/yy")&amp;" "&amp;IF(INDEX(Data[],A8,3)="",TEXT(INDEX(Data[],A8,4),"hh:mm ")&amp;"- "&amp;TEXT(INDEX(Data[],A8,5),"hh:mm "),"- " &amp; TEXT(INDEX(Data[],A8,3),"mm/dd/yy"))</f>
+        <v xml:space="preserve">11/17/19 16:00 - 17:00 </v>
       </c>
       <c r="D8" s="18" t="s">
         <v>3</v>
@@ -1073,7 +1099,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15" t="str">
         <f>Data!$B$1</f>
@@ -1090,23 +1116,23 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="30">
-        <f>INDEX(Data[],A8,5)</f>
+        <f>INDEX(Data[],A8,6)</f>
         <v>0</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32">
-        <f>INDEX(Data[],A8,6)</f>
+        <f>INDEX(Data[],A8,7)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -1114,7 +1140,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1123,7 +1149,7 @@
     <row r="13" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="34">
-        <f>INDEX(Data[],A8,7)</f>
+        <f>INDEX(Data[],A8,8)</f>
         <v>0</v>
       </c>
       <c r="C13" s="35"/>
@@ -1140,11 +1166,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="17" t="str">
-        <f>TEXT(INDEX(Data[],A15,2),"mm/dd/yy")&amp;" "&amp;TEXT(INDEX(Data[],A15,3),"hh:mm ")&amp;" - "&amp;TEXT(INDEX(Data[],A15,4),"hh:mm ")</f>
-        <v xml:space="preserve">11/18/19 00:00  - 00:00 </v>
+        <f>TEXT(INDEX(Data[],A15,2),"mm/dd/yy")&amp;" "&amp;IF(INDEX(Data[],A15,3)="",TEXT(INDEX(Data[],A15,4),"hh:mm ")&amp;"- "&amp;TEXT(INDEX(Data[],A15,5),"hh:mm "),"- " &amp; TEXT(INDEX(Data[],A15,3),"mm/dd/yy"))</f>
+        <v>11/18/19 - 11/20/19</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1157,7 +1183,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="15" t="str">
         <f>Data!$B$1</f>
@@ -1174,23 +1200,23 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30">
-        <f>INDEX(Data[],A15,5)</f>
+        <f>INDEX(Data[],A15,6)</f>
         <v>0</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="32">
-        <f>INDEX(Data[],A15,6)</f>
+        <f>INDEX(Data[],A15,7)</f>
         <v>0</v>
       </c>
       <c r="E18" s="33"/>
@@ -1198,7 +1224,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1207,7 +1233,7 @@
     <row r="20" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="34">
-        <f>INDEX(Data[],A15,7)</f>
+        <f>INDEX(Data[],A15,8)</f>
         <v>0</v>
       </c>
       <c r="C20" s="35"/>
@@ -1217,8 +1243,96 @@
       </c>
       <c r="E20" s="36"/>
     </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <f>A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17" t="e">
+        <f>TEXT(INDEX(Data[],A22,2),"mm/dd/yy")&amp;" "&amp;IF(INDEX(Data[],A22,3)="",TEXT(INDEX(Data[],A22,4),"hh:mm ")&amp;"- "&amp;TEXT(INDEX(Data[],A22,5),"hh:mm "),"- " &amp; TEXT(INDEX(Data[],A22,3),"mm/dd/yy"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="19" t="str">
+        <f>Data!$B$3</f>
+        <v>Jephunneh Mabini</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f>Data!$B$1</f>
+        <v>Rhea Shane Chiong</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="21" t="str">
+        <f>Data!$B$4</f>
+        <v>Mr. Edsel C. Paray</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="e">
+        <f>INDEX(Data[],A22,6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="e">
+        <f>INDEX(Data[],A22,7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="34" t="e">
+        <f>INDEX(Data[],A22,8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35" t="e">
+        <f>INDEX(Data[],C24,5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B18:C18"/>
